--- a/medicine/Maladies infectieuses/Collapsothérapie/Collapsothérapie.xlsx
+++ b/medicine/Maladies infectieuses/Collapsothérapie/Collapsothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collapsoth%C3%A9rapie</t>
+          <t>Collapsothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La collapsothérapie est un traitement de la tuberculose, utilisé avant l'arrivée des antibiotiques. Il consistait à réaliser un affaissement du poumon ainsi que sa mise au repos. Par la suite, on pratiquait un accolement des parois des cavernes, et on évacuait leur contenu ce qui permettait la cicatrisation.
  Portail de la médecine   Portail des maladies infectieuses                    </t>
